--- a/medicine/Enfance/Chocolate_me!/Chocolate_me!.xlsx
+++ b/medicine/Enfance/Chocolate_me!/Chocolate_me!.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Chocolate me! est un livre pour enfant écrit par l'acteur américain Taye Diggs et illustré par un de ses amis d'enfance, Shane Evans. 
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce livre raconte l'histoire d'un enfant charrié par ses amis car il n'est pas comme eux. Il a la peau plus foncée et les cheveux bouclés, ce qui l'amène à dire à sa mère qu'il aimerait ressembler aux autres enfants. Elle l'aide alors à accepter et aimer ses différences. L'histoire est basée sur les sentiments de l'auteur et de l'illustrateur, tous deux pères. Taye Diggs dit ne pas avoir toujours été à l'aise dans sa peau lorsqu'il était enfant car personne ne lui ressemblait dans son voisinage. Ce livre a été rédigé afin de donner confiance aux enfants qui se sentent différents.
 </t>
@@ -543,9 +557,11 @@
           <t>Éditions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le livre fait l'objet d'une publication aux États-Unis, et est disponible en France en langue anglaise. Aucune publication en français n'est annoncée pour le moment[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le livre fait l'objet d'une publication aux États-Unis, et est disponible en France en langue anglaise. Aucune publication en français n'est annoncée pour le moment.
 </t>
         </is>
       </c>
